--- a/documents/#02.基本設計/機能一覧.xlsx
+++ b/documents/#02.基本設計/機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\#02.基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B4D535-48D3-4D6B-AC0D-0FB2999E1880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7927C83C-B591-4A97-BC4D-A7FE27FF5496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70" yWindow="80" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
   <si>
     <t>システムID</t>
   </si>
@@ -318,6 +318,27 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>書物情報編集画面</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>書物情報登録画面</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録済み書物一覧画面</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1026,10 +1047,192 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,22 +1241,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,182 +1268,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6086,348 +6107,1305 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="2.58203125" style="34"/>
+    <col min="1" max="16384" width="2.58203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="42" t="s">
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="47" t="s">
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="54"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="21"/>
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="66" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="75"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="68"/>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="54"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="22"/>
+      <c r="BS3" s="23"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="21"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="73" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="59" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="75" t="s">
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="66" t="s">
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="67"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="69"/>
-      <c r="BT4" s="79"/>
-      <c r="BU4" s="54"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="30"/>
+      <c r="BL4" s="30"/>
+      <c r="BM4" s="30"/>
+      <c r="BN4" s="30"/>
+      <c r="BO4" s="30"/>
+      <c r="BP4" s="30"/>
+      <c r="BQ4" s="31"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="21"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="26"/>
+      <c r="BS5" s="26"/>
+      <c r="BT5" s="27"/>
+      <c r="BU5" s="21"/>
+    </row>
+    <row r="6" spans="1:73" ht="15.5" thickTop="1">
+      <c r="A6" s="25"/>
+      <c r="BU6" s="21"/>
+    </row>
+    <row r="7" spans="1:73">
+      <c r="A7" s="25"/>
+      <c r="BU7" s="21"/>
+    </row>
+    <row r="8" spans="1:73">
+      <c r="A8" s="25"/>
+      <c r="BU8" s="21"/>
+    </row>
+    <row r="9" spans="1:73">
+      <c r="A9" s="25"/>
+      <c r="BU9" s="21"/>
+    </row>
+    <row r="10" spans="1:73">
+      <c r="A10" s="25"/>
+      <c r="BU10" s="21"/>
+    </row>
+    <row r="11" spans="1:73">
+      <c r="A11" s="25"/>
+      <c r="BU11" s="21"/>
+    </row>
+    <row r="12" spans="1:73">
+      <c r="A12" s="25"/>
+      <c r="BU12" s="21"/>
+    </row>
+    <row r="13" spans="1:73">
+      <c r="A13" s="25"/>
+      <c r="BU13" s="21"/>
+    </row>
+    <row r="14" spans="1:73">
+      <c r="A14" s="25"/>
+      <c r="BU14" s="21"/>
+    </row>
+    <row r="15" spans="1:73">
+      <c r="A15" s="25"/>
+      <c r="BU15" s="21"/>
+    </row>
+    <row r="16" spans="1:73">
+      <c r="A16" s="25"/>
+      <c r="BU16" s="21"/>
+    </row>
+    <row r="17" spans="1:73">
+      <c r="A17" s="25"/>
+      <c r="BU17" s="21"/>
+    </row>
+    <row r="18" spans="1:73">
+      <c r="A18" s="25"/>
+      <c r="BU18" s="21"/>
+    </row>
+    <row r="19" spans="1:73">
+      <c r="A19" s="25"/>
+      <c r="BU19" s="21"/>
+    </row>
+    <row r="20" spans="1:73">
+      <c r="A20" s="25"/>
+      <c r="BU20" s="21"/>
+    </row>
+    <row r="21" spans="1:73">
+      <c r="A21" s="25"/>
+      <c r="BU21" s="21"/>
+    </row>
+    <row r="22" spans="1:73">
+      <c r="A22" s="25"/>
+      <c r="BU22" s="21"/>
+    </row>
+    <row r="23" spans="1:73">
+      <c r="A23" s="25"/>
+      <c r="BU23" s="21"/>
+    </row>
+    <row r="24" spans="1:73">
+      <c r="A24" s="25"/>
+      <c r="BU24" s="21"/>
+    </row>
+    <row r="25" spans="1:73">
+      <c r="A25" s="25"/>
+      <c r="BU25" s="21"/>
+    </row>
+    <row r="26" spans="1:73">
+      <c r="A26" s="25"/>
+      <c r="BU26" s="21"/>
+    </row>
+    <row r="27" spans="1:73">
+      <c r="A27" s="25"/>
+      <c r="BU27" s="21"/>
+    </row>
+    <row r="28" spans="1:73">
+      <c r="A28" s="25"/>
+      <c r="BU28" s="21"/>
+    </row>
+    <row r="29" spans="1:73">
+      <c r="A29" s="25"/>
+      <c r="BU29" s="21"/>
+    </row>
+    <row r="30" spans="1:73">
+      <c r="A30" s="25"/>
+      <c r="BU30" s="21"/>
+    </row>
+    <row r="31" spans="1:73">
+      <c r="A31" s="25"/>
+      <c r="BU31" s="21"/>
+    </row>
+    <row r="32" spans="1:73">
+      <c r="A32" s="25"/>
+      <c r="BU32" s="21"/>
+    </row>
+    <row r="33" spans="1:73">
+      <c r="A33" s="25"/>
+      <c r="BU33" s="21"/>
+    </row>
+    <row r="34" spans="1:73">
+      <c r="A34" s="25"/>
+      <c r="BU34" s="21"/>
+    </row>
+    <row r="35" spans="1:73">
+      <c r="A35" s="25"/>
+      <c r="BU35" s="21"/>
+    </row>
+    <row r="36" spans="1:73">
+      <c r="A36" s="25"/>
+      <c r="BU36" s="21"/>
+    </row>
+    <row r="37" spans="1:73">
+      <c r="A37" s="25"/>
+      <c r="BU37" s="21"/>
+    </row>
+    <row r="38" spans="1:73">
+      <c r="A38" s="25"/>
+      <c r="BU38" s="21"/>
+    </row>
+    <row r="39" spans="1:73">
+      <c r="A39" s="25"/>
+      <c r="BU39" s="21"/>
+    </row>
+    <row r="40" spans="1:73">
+      <c r="A40" s="25"/>
+      <c r="BU40" s="21"/>
+    </row>
+    <row r="41" spans="1:73">
+      <c r="A41" s="25"/>
+      <c r="BU41" s="21"/>
+    </row>
+    <row r="42" spans="1:73">
+      <c r="A42" s="25"/>
+      <c r="BU42" s="21"/>
+    </row>
+    <row r="43" spans="1:73">
+      <c r="A43" s="25"/>
+      <c r="BU43" s="21"/>
+    </row>
+    <row r="44" spans="1:73">
+      <c r="A44" s="25"/>
+      <c r="BU44" s="21"/>
+    </row>
+    <row r="45" spans="1:73">
+      <c r="A45" s="25"/>
+      <c r="BU45" s="21"/>
+    </row>
+    <row r="46" spans="1:73">
+      <c r="A46" s="25"/>
+      <c r="BU46" s="21"/>
+    </row>
+    <row r="47" spans="1:73">
+      <c r="A47" s="25"/>
+      <c r="BU47" s="21"/>
+    </row>
+    <row r="48" spans="1:73">
+      <c r="A48" s="25"/>
+      <c r="BU48" s="21"/>
+    </row>
+    <row r="49" spans="1:73">
+      <c r="A49" s="25"/>
+      <c r="BU49" s="21"/>
+    </row>
+    <row r="50" spans="1:73">
+      <c r="A50" s="25"/>
+      <c r="BU50" s="21"/>
+    </row>
+    <row r="51" spans="1:73" ht="15.5" thickBot="1">
+      <c r="A51" s="25"/>
+      <c r="BU51" s="21"/>
+    </row>
+    <row r="52" spans="1:73">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="19"/>
+      <c r="AL52" s="19"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="19"/>
+      <c r="AQ52" s="19"/>
+      <c r="AR52" s="19"/>
+      <c r="AS52" s="19"/>
+      <c r="AT52" s="19"/>
+      <c r="AU52" s="19"/>
+      <c r="AV52" s="19"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="19"/>
+      <c r="AY52" s="19"/>
+      <c r="AZ52" s="19"/>
+      <c r="BA52" s="19"/>
+      <c r="BB52" s="19"/>
+      <c r="BC52" s="19"/>
+      <c r="BD52" s="19"/>
+      <c r="BE52" s="19"/>
+      <c r="BF52" s="19"/>
+      <c r="BG52" s="19"/>
+      <c r="BH52" s="19"/>
+      <c r="BI52" s="19"/>
+      <c r="BJ52" s="19"/>
+      <c r="BK52" s="19"/>
+      <c r="BL52" s="19"/>
+      <c r="BM52" s="19"/>
+      <c r="BN52" s="19"/>
+      <c r="BO52" s="19"/>
+      <c r="BP52" s="19"/>
+      <c r="BQ52" s="19"/>
+      <c r="BR52" s="19"/>
+      <c r="BS52" s="19"/>
+      <c r="BT52" s="19"/>
+    </row>
+    <row r="53" spans="1:73">
+      <c r="A53" s="25"/>
+      <c r="BU53" s="21"/>
+    </row>
+    <row r="54" spans="1:73">
+      <c r="A54" s="25"/>
+      <c r="BU54" s="21"/>
+    </row>
+    <row r="55" spans="1:73">
+      <c r="A55" s="25"/>
+      <c r="BU55" s="21"/>
+    </row>
+    <row r="56" spans="1:73">
+      <c r="A56" s="25"/>
+      <c r="BU56" s="21"/>
+    </row>
+    <row r="57" spans="1:73">
+      <c r="A57" s="25"/>
+      <c r="M57" s="28"/>
+      <c r="BU57" s="21"/>
+    </row>
+    <row r="58" spans="1:73">
+      <c r="A58" s="25"/>
+      <c r="BU58" s="21"/>
+    </row>
+    <row r="59" spans="1:73">
+      <c r="A59" s="25"/>
+      <c r="BU59" s="21"/>
+    </row>
+    <row r="60" spans="1:73">
+      <c r="A60" s="25"/>
+      <c r="BU60" s="21"/>
+    </row>
+    <row r="61" spans="1:73">
+      <c r="A61" s="25"/>
+      <c r="BU61" s="21"/>
+    </row>
+    <row r="62" spans="1:73">
+      <c r="A62" s="25"/>
+      <c r="BU62" s="21"/>
+    </row>
+    <row r="63" spans="1:73">
+      <c r="A63" s="25"/>
+      <c r="BU63" s="21"/>
+    </row>
+    <row r="64" spans="1:73">
+      <c r="A64" s="25"/>
+      <c r="BU64" s="21"/>
+    </row>
+    <row r="65" spans="1:73">
+      <c r="A65" s="25"/>
+      <c r="BU65" s="21"/>
+    </row>
+    <row r="66" spans="1:73">
+      <c r="A66" s="25"/>
+      <c r="BU66" s="21"/>
+    </row>
+    <row r="67" spans="1:73">
+      <c r="A67" s="25"/>
+      <c r="BU67" s="21"/>
+    </row>
+    <row r="68" spans="1:73">
+      <c r="A68" s="25"/>
+      <c r="BU68" s="21"/>
+    </row>
+    <row r="69" spans="1:73">
+      <c r="A69" s="25"/>
+      <c r="BU69" s="21"/>
+    </row>
+    <row r="70" spans="1:73">
+      <c r="A70" s="25"/>
+      <c r="BU70" s="21"/>
+    </row>
+    <row r="71" spans="1:73">
+      <c r="A71" s="25"/>
+      <c r="BU71" s="21"/>
+    </row>
+    <row r="72" spans="1:73">
+      <c r="A72" s="25"/>
+      <c r="BU72" s="21"/>
+    </row>
+    <row r="73" spans="1:73">
+      <c r="A73" s="25"/>
+      <c r="BU73" s="21"/>
+    </row>
+    <row r="74" spans="1:73">
+      <c r="A74" s="25"/>
+      <c r="BU74" s="21"/>
+    </row>
+    <row r="75" spans="1:73">
+      <c r="A75" s="25"/>
+      <c r="BU75" s="21"/>
+    </row>
+    <row r="76" spans="1:73">
+      <c r="A76" s="25"/>
+      <c r="BU76" s="21"/>
+    </row>
+    <row r="77" spans="1:73">
+      <c r="A77" s="25"/>
+      <c r="BU77" s="21"/>
+    </row>
+    <row r="78" spans="1:73">
+      <c r="A78" s="25"/>
+      <c r="BU78" s="21"/>
+    </row>
+    <row r="79" spans="1:73">
+      <c r="A79" s="25"/>
+      <c r="BU79" s="21"/>
+    </row>
+    <row r="80" spans="1:73">
+      <c r="A80" s="25"/>
+      <c r="BU80" s="21"/>
+    </row>
+    <row r="81" spans="1:73">
+      <c r="A81" s="25"/>
+      <c r="BU81" s="21"/>
+    </row>
+    <row r="82" spans="1:73">
+      <c r="A82" s="25"/>
+      <c r="BU82" s="21"/>
+    </row>
+    <row r="83" spans="1:73">
+      <c r="A83" s="25"/>
+      <c r="BU83" s="21"/>
+    </row>
+    <row r="84" spans="1:73">
+      <c r="A84" s="25"/>
+      <c r="BU84" s="21"/>
+    </row>
+    <row r="85" spans="1:73">
+      <c r="A85" s="25"/>
+      <c r="BU85" s="21"/>
+    </row>
+    <row r="86" spans="1:73">
+      <c r="A86" s="25"/>
+      <c r="BU86" s="21"/>
+    </row>
+    <row r="87" spans="1:73">
+      <c r="A87" s="25"/>
+      <c r="BU87" s="21"/>
+    </row>
+    <row r="88" spans="1:73">
+      <c r="A88" s="25"/>
+      <c r="BU88" s="21"/>
+    </row>
+    <row r="89" spans="1:73">
+      <c r="A89" s="25"/>
+      <c r="BU89" s="21"/>
+    </row>
+    <row r="90" spans="1:73">
+      <c r="A90" s="25"/>
+      <c r="BU90" s="21"/>
+    </row>
+    <row r="91" spans="1:73">
+      <c r="A91" s="25"/>
+      <c r="BU91" s="21"/>
+    </row>
+    <row r="92" spans="1:73">
+      <c r="A92" s="25"/>
+      <c r="BU92" s="21"/>
+    </row>
+    <row r="93" spans="1:73">
+      <c r="A93" s="25"/>
+      <c r="BU93" s="21"/>
+    </row>
+    <row r="94" spans="1:73">
+      <c r="A94" s="25"/>
+      <c r="BU94" s="21"/>
+    </row>
+    <row r="95" spans="1:73">
+      <c r="A95" s="25"/>
+      <c r="BU95" s="21"/>
+    </row>
+    <row r="96" spans="1:73">
+      <c r="A96" s="25"/>
+      <c r="BU96" s="21"/>
+    </row>
+    <row r="97" spans="1:73">
+      <c r="A97" s="25"/>
+      <c r="BU97" s="21"/>
+    </row>
+    <row r="98" spans="1:73" ht="15.5" thickBot="1">
+      <c r="A98" s="25"/>
+      <c r="BU98" s="21"/>
+    </row>
+    <row r="99" spans="1:73">
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="19"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="19"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19"/>
+      <c r="AE99" s="19"/>
+      <c r="AF99" s="19"/>
+      <c r="AG99" s="19"/>
+      <c r="AH99" s="19"/>
+      <c r="AI99" s="19"/>
+      <c r="AJ99" s="19"/>
+      <c r="AK99" s="19"/>
+      <c r="AL99" s="19"/>
+      <c r="AM99" s="19"/>
+      <c r="AN99" s="19"/>
+      <c r="AO99" s="19"/>
+      <c r="AP99" s="19"/>
+      <c r="AQ99" s="19"/>
+      <c r="AR99" s="19"/>
+      <c r="AS99" s="19"/>
+      <c r="AT99" s="19"/>
+      <c r="AU99" s="19"/>
+      <c r="AV99" s="19"/>
+      <c r="AW99" s="19"/>
+      <c r="AX99" s="19"/>
+      <c r="AY99" s="19"/>
+      <c r="AZ99" s="19"/>
+      <c r="BA99" s="19"/>
+      <c r="BB99" s="19"/>
+      <c r="BC99" s="19"/>
+      <c r="BD99" s="19"/>
+      <c r="BE99" s="19"/>
+      <c r="BF99" s="19"/>
+      <c r="BG99" s="19"/>
+      <c r="BH99" s="19"/>
+      <c r="BI99" s="19"/>
+      <c r="BJ99" s="19"/>
+      <c r="BK99" s="19"/>
+      <c r="BL99" s="19"/>
+      <c r="BM99" s="19"/>
+      <c r="BN99" s="19"/>
+      <c r="BO99" s="19"/>
+      <c r="BP99" s="19"/>
+      <c r="BQ99" s="19"/>
+      <c r="BR99" s="19"/>
+      <c r="BS99" s="19"/>
+      <c r="BT99" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AT2:BF3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:V3"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="AO2:AS3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:V5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="BJ4:BQ4"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BQ5"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BG4:BI4"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;12P.&amp;P/&amp;N　　　</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37BCE27-4319-4B6C-A90D-A0A982EFF303}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BU99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10:AF17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+    </row>
+    <row r="2" spans="1:73" ht="15" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="21"/>
+    </row>
+    <row r="3" spans="1:73" ht="15" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="75"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="22"/>
+      <c r="BS3" s="23"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="21"/>
+    </row>
+    <row r="4" spans="1:73" ht="15" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="30"/>
+      <c r="BL4" s="30"/>
+      <c r="BM4" s="30"/>
+      <c r="BN4" s="30"/>
+      <c r="BO4" s="30"/>
+      <c r="BP4" s="30"/>
+      <c r="BQ4" s="31"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="21"/>
+    </row>
+    <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="84"/>
       <c r="X5" s="85"/>
       <c r="Y5" s="85"/>
@@ -6446,1005 +7424,48 @@
       <c r="AL5" s="85"/>
       <c r="AM5" s="85"/>
       <c r="AN5" s="86"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="91" t="s">
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="BH5" s="91"/>
-      <c r="BI5" s="91"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="93"/>
-      <c r="BM5" s="93"/>
-      <c r="BN5" s="93"/>
-      <c r="BO5" s="93"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="94"/>
-      <c r="BR5" s="95"/>
-      <c r="BS5" s="95"/>
-      <c r="BT5" s="96"/>
-      <c r="BU5" s="54"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="26"/>
+      <c r="BS5" s="26"/>
+      <c r="BT5" s="27"/>
+      <c r="BU5" s="21"/>
     </row>
     <row r="6" spans="1:73" ht="15.5" thickTop="1">
-      <c r="A6" s="79"/>
-      <c r="BU6" s="54"/>
+      <c r="A6" s="25"/>
+      <c r="BU6" s="21"/>
     </row>
     <row r="7" spans="1:73">
-      <c r="A7" s="79"/>
-      <c r="BU7" s="54"/>
-    </row>
-    <row r="8" spans="1:73">
-      <c r="A8" s="79"/>
-      <c r="BU8" s="54"/>
-    </row>
-    <row r="9" spans="1:73">
-      <c r="A9" s="79"/>
-      <c r="BU9" s="54"/>
-    </row>
-    <row r="10" spans="1:73">
-      <c r="A10" s="79"/>
-      <c r="BU10" s="54"/>
-    </row>
-    <row r="11" spans="1:73">
-      <c r="A11" s="79"/>
-      <c r="BU11" s="54"/>
-    </row>
-    <row r="12" spans="1:73">
-      <c r="A12" s="79"/>
-      <c r="BU12" s="54"/>
-    </row>
-    <row r="13" spans="1:73">
-      <c r="A13" s="79"/>
-      <c r="BU13" s="54"/>
-    </row>
-    <row r="14" spans="1:73">
-      <c r="A14" s="79"/>
-      <c r="BU14" s="54"/>
-    </row>
-    <row r="15" spans="1:73">
-      <c r="A15" s="79"/>
-      <c r="BU15" s="54"/>
-    </row>
-    <row r="16" spans="1:73">
-      <c r="A16" s="79"/>
-      <c r="BU16" s="54"/>
-    </row>
-    <row r="17" spans="1:73">
-      <c r="A17" s="79"/>
-      <c r="BU17" s="54"/>
-    </row>
-    <row r="18" spans="1:73">
-      <c r="A18" s="79"/>
-      <c r="BU18" s="54"/>
-    </row>
-    <row r="19" spans="1:73">
-      <c r="A19" s="79"/>
-      <c r="BU19" s="54"/>
-    </row>
-    <row r="20" spans="1:73">
-      <c r="A20" s="79"/>
-      <c r="BU20" s="54"/>
-    </row>
-    <row r="21" spans="1:73">
-      <c r="A21" s="79"/>
-      <c r="BU21" s="54"/>
-    </row>
-    <row r="22" spans="1:73">
-      <c r="A22" s="79"/>
-      <c r="BU22" s="54"/>
-    </row>
-    <row r="23" spans="1:73">
-      <c r="A23" s="79"/>
-      <c r="BU23" s="54"/>
-    </row>
-    <row r="24" spans="1:73">
-      <c r="A24" s="79"/>
-      <c r="BU24" s="54"/>
-    </row>
-    <row r="25" spans="1:73">
-      <c r="A25" s="79"/>
-      <c r="BU25" s="54"/>
-    </row>
-    <row r="26" spans="1:73">
-      <c r="A26" s="79"/>
-      <c r="BU26" s="54"/>
-    </row>
-    <row r="27" spans="1:73">
-      <c r="A27" s="79"/>
-      <c r="BU27" s="54"/>
-    </row>
-    <row r="28" spans="1:73">
-      <c r="A28" s="79"/>
-      <c r="BU28" s="54"/>
-    </row>
-    <row r="29" spans="1:73">
-      <c r="A29" s="79"/>
-      <c r="BU29" s="54"/>
-    </row>
-    <row r="30" spans="1:73">
-      <c r="A30" s="79"/>
-      <c r="BU30" s="54"/>
-    </row>
-    <row r="31" spans="1:73">
-      <c r="A31" s="79"/>
-      <c r="BU31" s="54"/>
-    </row>
-    <row r="32" spans="1:73">
-      <c r="A32" s="79"/>
-      <c r="BU32" s="54"/>
-    </row>
-    <row r="33" spans="1:73">
-      <c r="A33" s="79"/>
-      <c r="BU33" s="54"/>
-    </row>
-    <row r="34" spans="1:73">
-      <c r="A34" s="79"/>
-      <c r="BU34" s="54"/>
-    </row>
-    <row r="35" spans="1:73">
-      <c r="A35" s="79"/>
-      <c r="BU35" s="54"/>
-    </row>
-    <row r="36" spans="1:73">
-      <c r="A36" s="79"/>
-      <c r="BU36" s="54"/>
-    </row>
-    <row r="37" spans="1:73">
-      <c r="A37" s="79"/>
-      <c r="BU37" s="54"/>
-    </row>
-    <row r="38" spans="1:73">
-      <c r="A38" s="79"/>
-      <c r="BU38" s="54"/>
-    </row>
-    <row r="39" spans="1:73">
-      <c r="A39" s="79"/>
-      <c r="BU39" s="54"/>
-    </row>
-    <row r="40" spans="1:73">
-      <c r="A40" s="79"/>
-      <c r="BU40" s="54"/>
-    </row>
-    <row r="41" spans="1:73">
-      <c r="A41" s="79"/>
-      <c r="BU41" s="54"/>
-    </row>
-    <row r="42" spans="1:73">
-      <c r="A42" s="79"/>
-      <c r="BU42" s="54"/>
-    </row>
-    <row r="43" spans="1:73">
-      <c r="A43" s="79"/>
-      <c r="BU43" s="54"/>
-    </row>
-    <row r="44" spans="1:73">
-      <c r="A44" s="79"/>
-      <c r="BU44" s="54"/>
-    </row>
-    <row r="45" spans="1:73">
-      <c r="A45" s="79"/>
-      <c r="BU45" s="54"/>
-    </row>
-    <row r="46" spans="1:73">
-      <c r="A46" s="79"/>
-      <c r="BU46" s="54"/>
-    </row>
-    <row r="47" spans="1:73">
-      <c r="A47" s="79"/>
-      <c r="BU47" s="54"/>
-    </row>
-    <row r="48" spans="1:73">
-      <c r="A48" s="79"/>
-      <c r="BU48" s="54"/>
-    </row>
-    <row r="49" spans="1:73">
-      <c r="A49" s="79"/>
-      <c r="BU49" s="54"/>
-    </row>
-    <row r="50" spans="1:73">
-      <c r="A50" s="79"/>
-      <c r="BU50" s="54"/>
-    </row>
-    <row r="51" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A51" s="79"/>
-      <c r="BU51" s="54"/>
-    </row>
-    <row r="52" spans="1:73">
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="52"/>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="52"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="52"/>
-      <c r="AO52" s="52"/>
-      <c r="AP52" s="52"/>
-      <c r="AQ52" s="52"/>
-      <c r="AR52" s="52"/>
-      <c r="AS52" s="52"/>
-      <c r="AT52" s="52"/>
-      <c r="AU52" s="52"/>
-      <c r="AV52" s="52"/>
-      <c r="AW52" s="52"/>
-      <c r="AX52" s="52"/>
-      <c r="AY52" s="52"/>
-      <c r="AZ52" s="52"/>
-      <c r="BA52" s="52"/>
-      <c r="BB52" s="52"/>
-      <c r="BC52" s="52"/>
-      <c r="BD52" s="52"/>
-      <c r="BE52" s="52"/>
-      <c r="BF52" s="52"/>
-      <c r="BG52" s="52"/>
-      <c r="BH52" s="52"/>
-      <c r="BI52" s="52"/>
-      <c r="BJ52" s="52"/>
-      <c r="BK52" s="52"/>
-      <c r="BL52" s="52"/>
-      <c r="BM52" s="52"/>
-      <c r="BN52" s="52"/>
-      <c r="BO52" s="52"/>
-      <c r="BP52" s="52"/>
-      <c r="BQ52" s="52"/>
-      <c r="BR52" s="52"/>
-      <c r="BS52" s="52"/>
-      <c r="BT52" s="52"/>
-    </row>
-    <row r="53" spans="1:73">
-      <c r="A53" s="79"/>
-      <c r="BU53" s="54"/>
-    </row>
-    <row r="54" spans="1:73">
-      <c r="A54" s="79"/>
-      <c r="BU54" s="54"/>
-    </row>
-    <row r="55" spans="1:73">
-      <c r="A55" s="79"/>
-      <c r="BU55" s="54"/>
-    </row>
-    <row r="56" spans="1:73">
-      <c r="A56" s="79"/>
-      <c r="BU56" s="54"/>
-    </row>
-    <row r="57" spans="1:73">
-      <c r="A57" s="79"/>
-      <c r="M57" s="97"/>
-      <c r="BU57" s="54"/>
-    </row>
-    <row r="58" spans="1:73">
-      <c r="A58" s="79"/>
-      <c r="BU58" s="54"/>
-    </row>
-    <row r="59" spans="1:73">
-      <c r="A59" s="79"/>
-      <c r="BU59" s="54"/>
-    </row>
-    <row r="60" spans="1:73">
-      <c r="A60" s="79"/>
-      <c r="BU60" s="54"/>
-    </row>
-    <row r="61" spans="1:73">
-      <c r="A61" s="79"/>
-      <c r="BU61" s="54"/>
-    </row>
-    <row r="62" spans="1:73">
-      <c r="A62" s="79"/>
-      <c r="BU62" s="54"/>
-    </row>
-    <row r="63" spans="1:73">
-      <c r="A63" s="79"/>
-      <c r="BU63" s="54"/>
-    </row>
-    <row r="64" spans="1:73">
-      <c r="A64" s="79"/>
-      <c r="BU64" s="54"/>
-    </row>
-    <row r="65" spans="1:73">
-      <c r="A65" s="79"/>
-      <c r="BU65" s="54"/>
-    </row>
-    <row r="66" spans="1:73">
-      <c r="A66" s="79"/>
-      <c r="BU66" s="54"/>
-    </row>
-    <row r="67" spans="1:73">
-      <c r="A67" s="79"/>
-      <c r="BU67" s="54"/>
-    </row>
-    <row r="68" spans="1:73">
-      <c r="A68" s="79"/>
-      <c r="BU68" s="54"/>
-    </row>
-    <row r="69" spans="1:73">
-      <c r="A69" s="79"/>
-      <c r="BU69" s="54"/>
-    </row>
-    <row r="70" spans="1:73">
-      <c r="A70" s="79"/>
-      <c r="BU70" s="54"/>
-    </row>
-    <row r="71" spans="1:73">
-      <c r="A71" s="79"/>
-      <c r="BU71" s="54"/>
-    </row>
-    <row r="72" spans="1:73">
-      <c r="A72" s="79"/>
-      <c r="BU72" s="54"/>
-    </row>
-    <row r="73" spans="1:73">
-      <c r="A73" s="79"/>
-      <c r="BU73" s="54"/>
-    </row>
-    <row r="74" spans="1:73">
-      <c r="A74" s="79"/>
-      <c r="BU74" s="54"/>
-    </row>
-    <row r="75" spans="1:73">
-      <c r="A75" s="79"/>
-      <c r="BU75" s="54"/>
-    </row>
-    <row r="76" spans="1:73">
-      <c r="A76" s="79"/>
-      <c r="BU76" s="54"/>
-    </row>
-    <row r="77" spans="1:73">
-      <c r="A77" s="79"/>
-      <c r="BU77" s="54"/>
-    </row>
-    <row r="78" spans="1:73">
-      <c r="A78" s="79"/>
-      <c r="BU78" s="54"/>
-    </row>
-    <row r="79" spans="1:73">
-      <c r="A79" s="79"/>
-      <c r="BU79" s="54"/>
-    </row>
-    <row r="80" spans="1:73">
-      <c r="A80" s="79"/>
-      <c r="BU80" s="54"/>
-    </row>
-    <row r="81" spans="1:73">
-      <c r="A81" s="79"/>
-      <c r="BU81" s="54"/>
-    </row>
-    <row r="82" spans="1:73">
-      <c r="A82" s="79"/>
-      <c r="BU82" s="54"/>
-    </row>
-    <row r="83" spans="1:73">
-      <c r="A83" s="79"/>
-      <c r="BU83" s="54"/>
-    </row>
-    <row r="84" spans="1:73">
-      <c r="A84" s="79"/>
-      <c r="BU84" s="54"/>
-    </row>
-    <row r="85" spans="1:73">
-      <c r="A85" s="79"/>
-      <c r="BU85" s="54"/>
-    </row>
-    <row r="86" spans="1:73">
-      <c r="A86" s="79"/>
-      <c r="BU86" s="54"/>
-    </row>
-    <row r="87" spans="1:73">
-      <c r="A87" s="79"/>
-      <c r="BU87" s="54"/>
-    </row>
-    <row r="88" spans="1:73">
-      <c r="A88" s="79"/>
-      <c r="BU88" s="54"/>
-    </row>
-    <row r="89" spans="1:73">
-      <c r="A89" s="79"/>
-      <c r="BU89" s="54"/>
-    </row>
-    <row r="90" spans="1:73">
-      <c r="A90" s="79"/>
-      <c r="BU90" s="54"/>
-    </row>
-    <row r="91" spans="1:73">
-      <c r="A91" s="79"/>
-      <c r="BU91" s="54"/>
-    </row>
-    <row r="92" spans="1:73">
-      <c r="A92" s="79"/>
-      <c r="BU92" s="54"/>
-    </row>
-    <row r="93" spans="1:73">
-      <c r="A93" s="79"/>
-      <c r="BU93" s="54"/>
-    </row>
-    <row r="94" spans="1:73">
-      <c r="A94" s="79"/>
-      <c r="BU94" s="54"/>
-    </row>
-    <row r="95" spans="1:73">
-      <c r="A95" s="79"/>
-      <c r="BU95" s="54"/>
-    </row>
-    <row r="96" spans="1:73">
-      <c r="A96" s="79"/>
-      <c r="BU96" s="54"/>
-    </row>
-    <row r="97" spans="1:73">
-      <c r="A97" s="79"/>
-      <c r="BU97" s="54"/>
-    </row>
-    <row r="98" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A98" s="79"/>
-      <c r="BU98" s="54"/>
-    </row>
-    <row r="99" spans="1:73">
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="52"/>
-      <c r="O99" s="52"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="52"/>
-      <c r="S99" s="52"/>
-      <c r="T99" s="52"/>
-      <c r="U99" s="52"/>
-      <c r="V99" s="52"/>
-      <c r="W99" s="52"/>
-      <c r="X99" s="52"/>
-      <c r="Y99" s="52"/>
-      <c r="Z99" s="52"/>
-      <c r="AA99" s="52"/>
-      <c r="AB99" s="52"/>
-      <c r="AC99" s="52"/>
-      <c r="AD99" s="52"/>
-      <c r="AE99" s="52"/>
-      <c r="AF99" s="52"/>
-      <c r="AG99" s="52"/>
-      <c r="AH99" s="52"/>
-      <c r="AI99" s="52"/>
-      <c r="AJ99" s="52"/>
-      <c r="AK99" s="52"/>
-      <c r="AL99" s="52"/>
-      <c r="AM99" s="52"/>
-      <c r="AN99" s="52"/>
-      <c r="AO99" s="52"/>
-      <c r="AP99" s="52"/>
-      <c r="AQ99" s="52"/>
-      <c r="AR99" s="52"/>
-      <c r="AS99" s="52"/>
-      <c r="AT99" s="52"/>
-      <c r="AU99" s="52"/>
-      <c r="AV99" s="52"/>
-      <c r="AW99" s="52"/>
-      <c r="AX99" s="52"/>
-      <c r="AY99" s="52"/>
-      <c r="AZ99" s="52"/>
-      <c r="BA99" s="52"/>
-      <c r="BB99" s="52"/>
-      <c r="BC99" s="52"/>
-      <c r="BD99" s="52"/>
-      <c r="BE99" s="52"/>
-      <c r="BF99" s="52"/>
-      <c r="BG99" s="52"/>
-      <c r="BH99" s="52"/>
-      <c r="BI99" s="52"/>
-      <c r="BJ99" s="52"/>
-      <c r="BK99" s="52"/>
-      <c r="BL99" s="52"/>
-      <c r="BM99" s="52"/>
-      <c r="BN99" s="52"/>
-      <c r="BO99" s="52"/>
-      <c r="BP99" s="52"/>
-      <c r="BQ99" s="52"/>
-      <c r="BR99" s="52"/>
-      <c r="BS99" s="52"/>
-      <c r="BT99" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="BJ4:BQ4"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BQ5"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AN5"/>
-    <mergeCell ref="AO4:AS5"/>
-    <mergeCell ref="AT4:BF5"/>
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AA3"/>
-    <mergeCell ref="AB2:AN3"/>
-    <mergeCell ref="AO2:AS3"/>
-    <mergeCell ref="AT2:BF3"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;12P.&amp;P/&amp;N　　　</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37BCE27-4319-4B6C-A90D-A0A982EFF303}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BU99"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AP25" sqref="AP25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="2.58203125" style="34"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
-    </row>
-    <row r="2" spans="1:73" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="54"/>
-    </row>
-    <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="68"/>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="54"/>
-    </row>
-    <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="67"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="69"/>
-      <c r="BT4" s="79"/>
-      <c r="BU4" s="54"/>
-    </row>
-    <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH5" s="91"/>
-      <c r="BI5" s="91"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="93"/>
-      <c r="BM5" s="93"/>
-      <c r="BN5" s="93"/>
-      <c r="BO5" s="93"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="94"/>
-      <c r="BR5" s="95"/>
-      <c r="BS5" s="95"/>
-      <c r="BT5" s="96"/>
-      <c r="BU5" s="54"/>
-    </row>
-    <row r="6" spans="1:73" ht="15.5" thickTop="1">
-      <c r="A6" s="79"/>
-      <c r="BU6" s="54"/>
-    </row>
-    <row r="7" spans="1:73">
-      <c r="A7" s="79"/>
+      <c r="A7" s="25"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7517,10 +7538,10 @@
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1"/>
-      <c r="BU7" s="54"/>
+      <c r="BU7" s="21"/>
     </row>
     <row r="8" spans="1:73">
-      <c r="A8" s="79"/>
+      <c r="A8" s="25"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -7589,10 +7610,10 @@
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
       <c r="BR8" s="1"/>
-      <c r="BU8" s="54"/>
+      <c r="BU8" s="21"/>
     </row>
     <row r="9" spans="1:73">
-      <c r="A9" s="79"/>
+      <c r="A9" s="25"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
@@ -7669,10 +7690,10 @@
       <c r="BP9" s="3"/>
       <c r="BQ9" s="3"/>
       <c r="BR9" s="7"/>
-      <c r="BU9" s="54"/>
+      <c r="BU9" s="21"/>
     </row>
     <row r="10" spans="1:73">
-      <c r="A10" s="79"/>
+      <c r="A10" s="25"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="9"/>
@@ -7751,10 +7772,10 @@
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
       <c r="BR10" s="11"/>
-      <c r="BU10" s="54"/>
+      <c r="BU10" s="21"/>
     </row>
     <row r="11" spans="1:73">
-      <c r="A11" s="79"/>
+      <c r="A11" s="25"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
@@ -7833,10 +7854,10 @@
       <c r="BP11" s="5"/>
       <c r="BQ11" s="5"/>
       <c r="BR11" s="8"/>
-      <c r="BU11" s="54"/>
+      <c r="BU11" s="21"/>
     </row>
     <row r="12" spans="1:73">
-      <c r="A12" s="79"/>
+      <c r="A12" s="25"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
@@ -7907,10 +7928,10 @@
       <c r="BP12" s="5"/>
       <c r="BQ12" s="5"/>
       <c r="BR12" s="8"/>
-      <c r="BU12" s="54"/>
+      <c r="BU12" s="21"/>
     </row>
     <row r="13" spans="1:73">
-      <c r="A13" s="79"/>
+      <c r="A13" s="25"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
@@ -7981,10 +8002,10 @@
       <c r="BP13" s="5"/>
       <c r="BQ13" s="5"/>
       <c r="BR13" s="8"/>
-      <c r="BU13" s="54"/>
+      <c r="BU13" s="21"/>
     </row>
     <row r="14" spans="1:73">
-      <c r="A14" s="79"/>
+      <c r="A14" s="25"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
@@ -8063,10 +8084,10 @@
       <c r="BP14" s="5"/>
       <c r="BQ14" s="5"/>
       <c r="BR14" s="8"/>
-      <c r="BU14" s="54"/>
+      <c r="BU14" s="21"/>
     </row>
     <row r="15" spans="1:73">
-      <c r="A15" s="79"/>
+      <c r="A15" s="25"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
@@ -8137,10 +8158,10 @@
       <c r="BP15" s="5"/>
       <c r="BQ15" s="5"/>
       <c r="BR15" s="8"/>
-      <c r="BU15" s="54"/>
+      <c r="BU15" s="21"/>
     </row>
     <row r="16" spans="1:73">
-      <c r="A16" s="79"/>
+      <c r="A16" s="25"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
@@ -8213,10 +8234,10 @@
       <c r="BP16" s="5"/>
       <c r="BQ16" s="5"/>
       <c r="BR16" s="8"/>
-      <c r="BU16" s="54"/>
+      <c r="BU16" s="21"/>
     </row>
     <row r="17" spans="1:73">
-      <c r="A17" s="79"/>
+      <c r="A17" s="25"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
@@ -8295,10 +8316,10 @@
       <c r="BP17" s="5"/>
       <c r="BQ17" s="5"/>
       <c r="BR17" s="8"/>
-      <c r="BU17" s="54"/>
+      <c r="BU17" s="21"/>
     </row>
     <row r="18" spans="1:73">
-      <c r="A18" s="79"/>
+      <c r="A18" s="25"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
@@ -8369,10 +8390,10 @@
       <c r="BP18" s="5"/>
       <c r="BQ18" s="5"/>
       <c r="BR18" s="8"/>
-      <c r="BU18" s="54"/>
+      <c r="BU18" s="21"/>
     </row>
     <row r="19" spans="1:73">
-      <c r="A19" s="79"/>
+      <c r="A19" s="25"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
@@ -8451,10 +8472,10 @@
       <c r="BP19" s="5"/>
       <c r="BQ19" s="5"/>
       <c r="BR19" s="8"/>
-      <c r="BU19" s="54"/>
+      <c r="BU19" s="21"/>
     </row>
     <row r="20" spans="1:73">
-      <c r="A20" s="79"/>
+      <c r="A20" s="25"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
@@ -8525,10 +8546,10 @@
       <c r="BP20" s="5"/>
       <c r="BQ20" s="5"/>
       <c r="BR20" s="8"/>
-      <c r="BU20" s="54"/>
+      <c r="BU20" s="21"/>
     </row>
     <row r="21" spans="1:73">
-      <c r="A21" s="79"/>
+      <c r="A21" s="25"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
@@ -8599,10 +8620,10 @@
       <c r="BP21" s="5"/>
       <c r="BQ21" s="5"/>
       <c r="BR21" s="8"/>
-      <c r="BU21" s="54"/>
+      <c r="BU21" s="21"/>
     </row>
     <row r="22" spans="1:73">
-      <c r="A22" s="79"/>
+      <c r="A22" s="25"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
@@ -8616,7 +8637,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -8681,10 +8702,10 @@
       <c r="BP22" s="5"/>
       <c r="BQ22" s="5"/>
       <c r="BR22" s="8"/>
-      <c r="BU22" s="54"/>
+      <c r="BU22" s="21"/>
     </row>
     <row r="23" spans="1:73">
-      <c r="A23" s="79"/>
+      <c r="A23" s="25"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
@@ -8696,7 +8717,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -8757,10 +8778,10 @@
       <c r="BP23" s="5"/>
       <c r="BQ23" s="5"/>
       <c r="BR23" s="8"/>
-      <c r="BU23" s="54"/>
+      <c r="BU23" s="21"/>
     </row>
     <row r="24" spans="1:73">
-      <c r="A24" s="79"/>
+      <c r="A24" s="25"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="4"/>
@@ -8772,7 +8793,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -8833,10 +8854,10 @@
       <c r="BP24" s="5"/>
       <c r="BQ24" s="5"/>
       <c r="BR24" s="8"/>
-      <c r="BU24" s="54"/>
+      <c r="BU24" s="21"/>
     </row>
     <row r="25" spans="1:73">
-      <c r="A25" s="79"/>
+      <c r="A25" s="25"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
@@ -8915,10 +8936,10 @@
       <c r="BP25" s="5"/>
       <c r="BQ25" s="5"/>
       <c r="BR25" s="8"/>
-      <c r="BU25" s="54"/>
+      <c r="BU25" s="21"/>
     </row>
     <row r="26" spans="1:73">
-      <c r="A26" s="79"/>
+      <c r="A26" s="25"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
@@ -8989,10 +9010,10 @@
       <c r="BP26" s="5"/>
       <c r="BQ26" s="5"/>
       <c r="BR26" s="8"/>
-      <c r="BU26" s="54"/>
+      <c r="BU26" s="21"/>
     </row>
     <row r="27" spans="1:73">
-      <c r="A27" s="79"/>
+      <c r="A27" s="25"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="4"/>
@@ -9063,10 +9084,10 @@
       <c r="BP27" s="5"/>
       <c r="BQ27" s="5"/>
       <c r="BR27" s="8"/>
-      <c r="BU27" s="54"/>
+      <c r="BU27" s="21"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="79"/>
+      <c r="A28" s="25"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="4"/>
@@ -9139,10 +9160,10 @@
       <c r="BP28" s="5"/>
       <c r="BQ28" s="5"/>
       <c r="BR28" s="8"/>
-      <c r="BU28" s="54"/>
+      <c r="BU28" s="21"/>
     </row>
     <row r="29" spans="1:73">
-      <c r="A29" s="79"/>
+      <c r="A29" s="25"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="4"/>
@@ -9213,10 +9234,10 @@
       <c r="BP29" s="5"/>
       <c r="BQ29" s="5"/>
       <c r="BR29" s="8"/>
-      <c r="BU29" s="54"/>
+      <c r="BU29" s="21"/>
     </row>
     <row r="30" spans="1:73">
-      <c r="A30" s="79"/>
+      <c r="A30" s="25"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="4"/>
@@ -9287,10 +9308,10 @@
       <c r="BP30" s="5"/>
       <c r="BQ30" s="5"/>
       <c r="BR30" s="8"/>
-      <c r="BU30" s="54"/>
+      <c r="BU30" s="21"/>
     </row>
     <row r="31" spans="1:73">
-      <c r="A31" s="79"/>
+      <c r="A31" s="25"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="4"/>
@@ -9359,10 +9380,10 @@
       <c r="BP31" s="5"/>
       <c r="BQ31" s="5"/>
       <c r="BR31" s="8"/>
-      <c r="BU31" s="54"/>
+      <c r="BU31" s="21"/>
     </row>
     <row r="32" spans="1:73">
-      <c r="A32" s="79"/>
+      <c r="A32" s="25"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="4"/>
@@ -9431,10 +9452,10 @@
       <c r="BP32" s="5"/>
       <c r="BQ32" s="5"/>
       <c r="BR32" s="8"/>
-      <c r="BU32" s="54"/>
+      <c r="BU32" s="21"/>
     </row>
     <row r="33" spans="1:73">
-      <c r="A33" s="79"/>
+      <c r="A33" s="25"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>
@@ -9513,10 +9534,10 @@
       <c r="BP33" s="5"/>
       <c r="BQ33" s="5"/>
       <c r="BR33" s="8"/>
-      <c r="BU33" s="54"/>
+      <c r="BU33" s="21"/>
     </row>
     <row r="34" spans="1:73">
-      <c r="A34" s="79"/>
+      <c r="A34" s="25"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="4"/>
@@ -9589,10 +9610,10 @@
       <c r="BP34" s="5"/>
       <c r="BQ34" s="5"/>
       <c r="BR34" s="8"/>
-      <c r="BU34" s="54"/>
+      <c r="BU34" s="21"/>
     </row>
     <row r="35" spans="1:73">
-      <c r="A35" s="79"/>
+      <c r="A35" s="25"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="12"/>
@@ -9665,10 +9686,10 @@
       <c r="BP35" s="13"/>
       <c r="BQ35" s="13"/>
       <c r="BR35" s="14"/>
-      <c r="BU35" s="54"/>
+      <c r="BU35" s="21"/>
     </row>
     <row r="36" spans="1:73">
-      <c r="A36" s="79"/>
+      <c r="A36" s="25"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9737,401 +9758,412 @@
       <c r="BP36" s="1"/>
       <c r="BQ36" s="1"/>
       <c r="BR36" s="1"/>
-      <c r="BU36" s="54"/>
+      <c r="BU36" s="21"/>
     </row>
     <row r="37" spans="1:73">
-      <c r="A37" s="79"/>
-      <c r="BU37" s="54"/>
+      <c r="A37" s="25"/>
+      <c r="BU37" s="21"/>
     </row>
     <row r="38" spans="1:73">
-      <c r="A38" s="79"/>
-      <c r="BU38" s="54"/>
+      <c r="A38" s="25"/>
+      <c r="BU38" s="21"/>
     </row>
     <row r="39" spans="1:73">
-      <c r="A39" s="79"/>
-      <c r="BU39" s="54"/>
+      <c r="A39" s="25"/>
+      <c r="BU39" s="21"/>
     </row>
     <row r="40" spans="1:73">
-      <c r="A40" s="79"/>
-      <c r="BU40" s="54"/>
+      <c r="A40" s="25"/>
+      <c r="BU40" s="21"/>
     </row>
     <row r="41" spans="1:73">
-      <c r="A41" s="79"/>
-      <c r="BU41" s="54"/>
+      <c r="A41" s="25"/>
+      <c r="BU41" s="21"/>
     </row>
     <row r="42" spans="1:73">
-      <c r="A42" s="79"/>
-      <c r="BU42" s="54"/>
+      <c r="A42" s="25"/>
+      <c r="BU42" s="21"/>
     </row>
     <row r="43" spans="1:73">
-      <c r="A43" s="79"/>
-      <c r="BU43" s="54"/>
+      <c r="A43" s="25"/>
+      <c r="BU43" s="21"/>
     </row>
     <row r="44" spans="1:73">
-      <c r="A44" s="79"/>
-      <c r="BU44" s="54"/>
+      <c r="A44" s="25"/>
+      <c r="BU44" s="21"/>
     </row>
     <row r="45" spans="1:73">
-      <c r="A45" s="79"/>
-      <c r="BU45" s="54"/>
+      <c r="A45" s="25"/>
+      <c r="BU45" s="21"/>
     </row>
     <row r="46" spans="1:73">
-      <c r="A46" s="79"/>
-      <c r="BU46" s="54"/>
+      <c r="A46" s="25"/>
+      <c r="BU46" s="21"/>
     </row>
     <row r="47" spans="1:73">
-      <c r="A47" s="79"/>
-      <c r="BU47" s="54"/>
+      <c r="A47" s="25"/>
+      <c r="BU47" s="21"/>
     </row>
     <row r="48" spans="1:73">
-      <c r="A48" s="79"/>
-      <c r="BU48" s="54"/>
+      <c r="A48" s="25"/>
+      <c r="BU48" s="21"/>
     </row>
     <row r="49" spans="1:73">
-      <c r="A49" s="79"/>
-      <c r="BU49" s="54"/>
+      <c r="A49" s="25"/>
+      <c r="BU49" s="21"/>
     </row>
     <row r="50" spans="1:73">
-      <c r="A50" s="79"/>
-      <c r="BU50" s="54"/>
+      <c r="A50" s="25"/>
+      <c r="BU50" s="21"/>
     </row>
     <row r="51" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A51" s="79"/>
-      <c r="BU51" s="54"/>
+      <c r="A51" s="25"/>
+      <c r="BU51" s="21"/>
     </row>
     <row r="52" spans="1:73">
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="52"/>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="52"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="52"/>
-      <c r="AO52" s="52"/>
-      <c r="AP52" s="52"/>
-      <c r="AQ52" s="52"/>
-      <c r="AR52" s="52"/>
-      <c r="AS52" s="52"/>
-      <c r="AT52" s="52"/>
-      <c r="AU52" s="52"/>
-      <c r="AV52" s="52"/>
-      <c r="AW52" s="52"/>
-      <c r="AX52" s="52"/>
-      <c r="AY52" s="52"/>
-      <c r="AZ52" s="52"/>
-      <c r="BA52" s="52"/>
-      <c r="BB52" s="52"/>
-      <c r="BC52" s="52"/>
-      <c r="BD52" s="52"/>
-      <c r="BE52" s="52"/>
-      <c r="BF52" s="52"/>
-      <c r="BG52" s="52"/>
-      <c r="BH52" s="52"/>
-      <c r="BI52" s="52"/>
-      <c r="BJ52" s="52"/>
-      <c r="BK52" s="52"/>
-      <c r="BL52" s="52"/>
-      <c r="BM52" s="52"/>
-      <c r="BN52" s="52"/>
-      <c r="BO52" s="52"/>
-      <c r="BP52" s="52"/>
-      <c r="BQ52" s="52"/>
-      <c r="BR52" s="52"/>
-      <c r="BS52" s="52"/>
-      <c r="BT52" s="52"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="19"/>
+      <c r="AL52" s="19"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="19"/>
+      <c r="AQ52" s="19"/>
+      <c r="AR52" s="19"/>
+      <c r="AS52" s="19"/>
+      <c r="AT52" s="19"/>
+      <c r="AU52" s="19"/>
+      <c r="AV52" s="19"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="19"/>
+      <c r="AY52" s="19"/>
+      <c r="AZ52" s="19"/>
+      <c r="BA52" s="19"/>
+      <c r="BB52" s="19"/>
+      <c r="BC52" s="19"/>
+      <c r="BD52" s="19"/>
+      <c r="BE52" s="19"/>
+      <c r="BF52" s="19"/>
+      <c r="BG52" s="19"/>
+      <c r="BH52" s="19"/>
+      <c r="BI52" s="19"/>
+      <c r="BJ52" s="19"/>
+      <c r="BK52" s="19"/>
+      <c r="BL52" s="19"/>
+      <c r="BM52" s="19"/>
+      <c r="BN52" s="19"/>
+      <c r="BO52" s="19"/>
+      <c r="BP52" s="19"/>
+      <c r="BQ52" s="19"/>
+      <c r="BR52" s="19"/>
+      <c r="BS52" s="19"/>
+      <c r="BT52" s="19"/>
     </row>
     <row r="53" spans="1:73">
-      <c r="A53" s="79"/>
-      <c r="BU53" s="54"/>
+      <c r="A53" s="25"/>
+      <c r="BU53" s="21"/>
     </row>
     <row r="54" spans="1:73">
-      <c r="A54" s="79"/>
-      <c r="BU54" s="54"/>
+      <c r="A54" s="25"/>
+      <c r="BU54" s="21"/>
     </row>
     <row r="55" spans="1:73">
-      <c r="A55" s="79"/>
-      <c r="BU55" s="54"/>
+      <c r="A55" s="25"/>
+      <c r="BU55" s="21"/>
     </row>
     <row r="56" spans="1:73">
-      <c r="A56" s="79"/>
-      <c r="BU56" s="54"/>
+      <c r="A56" s="25"/>
+      <c r="BU56" s="21"/>
     </row>
     <row r="57" spans="1:73">
-      <c r="A57" s="79"/>
-      <c r="M57" s="97"/>
-      <c r="BU57" s="54"/>
+      <c r="A57" s="25"/>
+      <c r="M57" s="28"/>
+      <c r="BU57" s="21"/>
     </row>
     <row r="58" spans="1:73">
-      <c r="A58" s="79"/>
-      <c r="BU58" s="54"/>
+      <c r="A58" s="25"/>
+      <c r="BU58" s="21"/>
     </row>
     <row r="59" spans="1:73">
-      <c r="A59" s="79"/>
-      <c r="BU59" s="54"/>
+      <c r="A59" s="25"/>
+      <c r="BU59" s="21"/>
     </row>
     <row r="60" spans="1:73">
-      <c r="A60" s="79"/>
-      <c r="BU60" s="54"/>
+      <c r="A60" s="25"/>
+      <c r="BU60" s="21"/>
     </row>
     <row r="61" spans="1:73">
-      <c r="A61" s="79"/>
-      <c r="BU61" s="54"/>
+      <c r="A61" s="25"/>
+      <c r="BU61" s="21"/>
     </row>
     <row r="62" spans="1:73">
-      <c r="A62" s="79"/>
-      <c r="BU62" s="54"/>
+      <c r="A62" s="25"/>
+      <c r="BU62" s="21"/>
     </row>
     <row r="63" spans="1:73">
-      <c r="A63" s="79"/>
-      <c r="BU63" s="54"/>
+      <c r="A63" s="25"/>
+      <c r="BU63" s="21"/>
     </row>
     <row r="64" spans="1:73">
-      <c r="A64" s="79"/>
-      <c r="BU64" s="54"/>
+      <c r="A64" s="25"/>
+      <c r="BU64" s="21"/>
     </row>
     <row r="65" spans="1:73">
-      <c r="A65" s="79"/>
-      <c r="BU65" s="54"/>
+      <c r="A65" s="25"/>
+      <c r="BU65" s="21"/>
     </row>
     <row r="66" spans="1:73">
-      <c r="A66" s="79"/>
-      <c r="BU66" s="54"/>
+      <c r="A66" s="25"/>
+      <c r="BU66" s="21"/>
     </row>
     <row r="67" spans="1:73">
-      <c r="A67" s="79"/>
-      <c r="BU67" s="54"/>
+      <c r="A67" s="25"/>
+      <c r="BU67" s="21"/>
     </row>
     <row r="68" spans="1:73">
-      <c r="A68" s="79"/>
-      <c r="BU68" s="54"/>
+      <c r="A68" s="25"/>
+      <c r="BU68" s="21"/>
     </row>
     <row r="69" spans="1:73">
-      <c r="A69" s="79"/>
-      <c r="BU69" s="54"/>
+      <c r="A69" s="25"/>
+      <c r="BU69" s="21"/>
     </row>
     <row r="70" spans="1:73">
-      <c r="A70" s="79"/>
-      <c r="BU70" s="54"/>
+      <c r="A70" s="25"/>
+      <c r="BU70" s="21"/>
     </row>
     <row r="71" spans="1:73">
-      <c r="A71" s="79"/>
-      <c r="BU71" s="54"/>
+      <c r="A71" s="25"/>
+      <c r="BU71" s="21"/>
     </row>
     <row r="72" spans="1:73">
-      <c r="A72" s="79"/>
-      <c r="BU72" s="54"/>
+      <c r="A72" s="25"/>
+      <c r="BU72" s="21"/>
     </row>
     <row r="73" spans="1:73">
-      <c r="A73" s="79"/>
-      <c r="BU73" s="54"/>
+      <c r="A73" s="25"/>
+      <c r="BU73" s="21"/>
     </row>
     <row r="74" spans="1:73">
-      <c r="A74" s="79"/>
-      <c r="BU74" s="54"/>
+      <c r="A74" s="25"/>
+      <c r="BU74" s="21"/>
     </row>
     <row r="75" spans="1:73">
-      <c r="A75" s="79"/>
-      <c r="BU75" s="54"/>
+      <c r="A75" s="25"/>
+      <c r="BU75" s="21"/>
     </row>
     <row r="76" spans="1:73">
-      <c r="A76" s="79"/>
-      <c r="BU76" s="54"/>
+      <c r="A76" s="25"/>
+      <c r="BU76" s="21"/>
     </row>
     <row r="77" spans="1:73">
-      <c r="A77" s="79"/>
-      <c r="BU77" s="54"/>
+      <c r="A77" s="25"/>
+      <c r="BU77" s="21"/>
     </row>
     <row r="78" spans="1:73">
-      <c r="A78" s="79"/>
-      <c r="BU78" s="54"/>
+      <c r="A78" s="25"/>
+      <c r="BU78" s="21"/>
     </row>
     <row r="79" spans="1:73">
-      <c r="A79" s="79"/>
-      <c r="BU79" s="54"/>
+      <c r="A79" s="25"/>
+      <c r="BU79" s="21"/>
     </row>
     <row r="80" spans="1:73">
-      <c r="A80" s="79"/>
-      <c r="BU80" s="54"/>
+      <c r="A80" s="25"/>
+      <c r="BU80" s="21"/>
     </row>
     <row r="81" spans="1:73">
-      <c r="A81" s="79"/>
-      <c r="BU81" s="54"/>
+      <c r="A81" s="25"/>
+      <c r="BU81" s="21"/>
     </row>
     <row r="82" spans="1:73">
-      <c r="A82" s="79"/>
-      <c r="BU82" s="54"/>
+      <c r="A82" s="25"/>
+      <c r="BU82" s="21"/>
     </row>
     <row r="83" spans="1:73">
-      <c r="A83" s="79"/>
-      <c r="BU83" s="54"/>
+      <c r="A83" s="25"/>
+      <c r="BU83" s="21"/>
     </row>
     <row r="84" spans="1:73">
-      <c r="A84" s="79"/>
-      <c r="BU84" s="54"/>
+      <c r="A84" s="25"/>
+      <c r="BU84" s="21"/>
     </row>
     <row r="85" spans="1:73">
-      <c r="A85" s="79"/>
-      <c r="BU85" s="54"/>
+      <c r="A85" s="25"/>
+      <c r="BU85" s="21"/>
     </row>
     <row r="86" spans="1:73">
-      <c r="A86" s="79"/>
-      <c r="BU86" s="54"/>
+      <c r="A86" s="25"/>
+      <c r="BU86" s="21"/>
     </row>
     <row r="87" spans="1:73">
-      <c r="A87" s="79"/>
-      <c r="BU87" s="54"/>
+      <c r="A87" s="25"/>
+      <c r="BU87" s="21"/>
     </row>
     <row r="88" spans="1:73">
-      <c r="A88" s="79"/>
-      <c r="BU88" s="54"/>
+      <c r="A88" s="25"/>
+      <c r="BU88" s="21"/>
     </row>
     <row r="89" spans="1:73">
-      <c r="A89" s="79"/>
-      <c r="BU89" s="54"/>
+      <c r="A89" s="25"/>
+      <c r="BU89" s="21"/>
     </row>
     <row r="90" spans="1:73">
-      <c r="A90" s="79"/>
-      <c r="BU90" s="54"/>
+      <c r="A90" s="25"/>
+      <c r="BU90" s="21"/>
     </row>
     <row r="91" spans="1:73">
-      <c r="A91" s="79"/>
-      <c r="BU91" s="54"/>
+      <c r="A91" s="25"/>
+      <c r="BU91" s="21"/>
     </row>
     <row r="92" spans="1:73">
-      <c r="A92" s="79"/>
-      <c r="BU92" s="54"/>
+      <c r="A92" s="25"/>
+      <c r="BU92" s="21"/>
     </row>
     <row r="93" spans="1:73">
-      <c r="A93" s="79"/>
-      <c r="BU93" s="54"/>
+      <c r="A93" s="25"/>
+      <c r="BU93" s="21"/>
     </row>
     <row r="94" spans="1:73">
-      <c r="A94" s="79"/>
-      <c r="BU94" s="54"/>
+      <c r="A94" s="25"/>
+      <c r="BU94" s="21"/>
     </row>
     <row r="95" spans="1:73">
-      <c r="A95" s="79"/>
-      <c r="BU95" s="54"/>
+      <c r="A95" s="25"/>
+      <c r="BU95" s="21"/>
     </row>
     <row r="96" spans="1:73">
-      <c r="A96" s="79"/>
-      <c r="BU96" s="54"/>
+      <c r="A96" s="25"/>
+      <c r="BU96" s="21"/>
     </row>
     <row r="97" spans="1:73">
-      <c r="A97" s="79"/>
-      <c r="BU97" s="54"/>
+      <c r="A97" s="25"/>
+      <c r="BU97" s="21"/>
     </row>
     <row r="98" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A98" s="79"/>
-      <c r="BU98" s="54"/>
+      <c r="A98" s="25"/>
+      <c r="BU98" s="21"/>
     </row>
     <row r="99" spans="1:73">
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="52"/>
-      <c r="O99" s="52"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="52"/>
-      <c r="S99" s="52"/>
-      <c r="T99" s="52"/>
-      <c r="U99" s="52"/>
-      <c r="V99" s="52"/>
-      <c r="W99" s="52"/>
-      <c r="X99" s="52"/>
-      <c r="Y99" s="52"/>
-      <c r="Z99" s="52"/>
-      <c r="AA99" s="52"/>
-      <c r="AB99" s="52"/>
-      <c r="AC99" s="52"/>
-      <c r="AD99" s="52"/>
-      <c r="AE99" s="52"/>
-      <c r="AF99" s="52"/>
-      <c r="AG99" s="52"/>
-      <c r="AH99" s="52"/>
-      <c r="AI99" s="52"/>
-      <c r="AJ99" s="52"/>
-      <c r="AK99" s="52"/>
-      <c r="AL99" s="52"/>
-      <c r="AM99" s="52"/>
-      <c r="AN99" s="52"/>
-      <c r="AO99" s="52"/>
-      <c r="AP99" s="52"/>
-      <c r="AQ99" s="52"/>
-      <c r="AR99" s="52"/>
-      <c r="AS99" s="52"/>
-      <c r="AT99" s="52"/>
-      <c r="AU99" s="52"/>
-      <c r="AV99" s="52"/>
-      <c r="AW99" s="52"/>
-      <c r="AX99" s="52"/>
-      <c r="AY99" s="52"/>
-      <c r="AZ99" s="52"/>
-      <c r="BA99" s="52"/>
-      <c r="BB99" s="52"/>
-      <c r="BC99" s="52"/>
-      <c r="BD99" s="52"/>
-      <c r="BE99" s="52"/>
-      <c r="BF99" s="52"/>
-      <c r="BG99" s="52"/>
-      <c r="BH99" s="52"/>
-      <c r="BI99" s="52"/>
-      <c r="BJ99" s="52"/>
-      <c r="BK99" s="52"/>
-      <c r="BL99" s="52"/>
-      <c r="BM99" s="52"/>
-      <c r="BN99" s="52"/>
-      <c r="BO99" s="52"/>
-      <c r="BP99" s="52"/>
-      <c r="BQ99" s="52"/>
-      <c r="BR99" s="52"/>
-      <c r="BS99" s="52"/>
-      <c r="BT99" s="52"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="19"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="19"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19"/>
+      <c r="AE99" s="19"/>
+      <c r="AF99" s="19"/>
+      <c r="AG99" s="19"/>
+      <c r="AH99" s="19"/>
+      <c r="AI99" s="19"/>
+      <c r="AJ99" s="19"/>
+      <c r="AK99" s="19"/>
+      <c r="AL99" s="19"/>
+      <c r="AM99" s="19"/>
+      <c r="AN99" s="19"/>
+      <c r="AO99" s="19"/>
+      <c r="AP99" s="19"/>
+      <c r="AQ99" s="19"/>
+      <c r="AR99" s="19"/>
+      <c r="AS99" s="19"/>
+      <c r="AT99" s="19"/>
+      <c r="AU99" s="19"/>
+      <c r="AV99" s="19"/>
+      <c r="AW99" s="19"/>
+      <c r="AX99" s="19"/>
+      <c r="AY99" s="19"/>
+      <c r="AZ99" s="19"/>
+      <c r="BA99" s="19"/>
+      <c r="BB99" s="19"/>
+      <c r="BC99" s="19"/>
+      <c r="BD99" s="19"/>
+      <c r="BE99" s="19"/>
+      <c r="BF99" s="19"/>
+      <c r="BG99" s="19"/>
+      <c r="BH99" s="19"/>
+      <c r="BI99" s="19"/>
+      <c r="BJ99" s="19"/>
+      <c r="BK99" s="19"/>
+      <c r="BL99" s="19"/>
+      <c r="BM99" s="19"/>
+      <c r="BN99" s="19"/>
+      <c r="BO99" s="19"/>
+      <c r="BP99" s="19"/>
+      <c r="BQ99" s="19"/>
+      <c r="BR99" s="19"/>
+      <c r="BS99" s="19"/>
+      <c r="BT99" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AT2:BF3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:V3"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="AO2:AS3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:V5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="BJ4:BQ4"/>
     <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BQ5"/>
@@ -10139,18 +10171,7 @@
     <mergeCell ref="BJ2:BQ2"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AN5"/>
-    <mergeCell ref="AO4:AS5"/>
-    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AA3"/>
-    <mergeCell ref="AB2:AN3"/>
-    <mergeCell ref="AO2:AS3"/>
-    <mergeCell ref="AT2:BF3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
@@ -10174,410 +10195,410 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="2.58203125" style="34"/>
+    <col min="1" max="16384" width="2.58203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="17" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="23" t="s">
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="42" t="s">
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="47" t="s">
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="54"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="21"/>
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="66" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="75"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="68"/>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="54"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="22"/>
+      <c r="BS3" s="23"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="21"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="15" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="24" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="75" t="s">
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="66" t="s">
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="67"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="69"/>
-      <c r="BT4" s="79"/>
-      <c r="BU4" s="54"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="30"/>
+      <c r="BL4" s="30"/>
+      <c r="BM4" s="30"/>
+      <c r="BN4" s="30"/>
+      <c r="BO4" s="30"/>
+      <c r="BP4" s="30"/>
+      <c r="BQ4" s="31"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="21"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="91" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="BH5" s="91"/>
-      <c r="BI5" s="91"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="93"/>
-      <c r="BM5" s="93"/>
-      <c r="BN5" s="93"/>
-      <c r="BO5" s="93"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="94"/>
-      <c r="BR5" s="95"/>
-      <c r="BS5" s="95"/>
-      <c r="BT5" s="96"/>
-      <c r="BU5" s="54"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="26"/>
+      <c r="BS5" s="26"/>
+      <c r="BT5" s="27"/>
+      <c r="BU5" s="21"/>
     </row>
     <row r="6" spans="1:73" ht="15.5" thickTop="1">
-      <c r="A6" s="79"/>
-      <c r="BU6" s="54"/>
+      <c r="A6" s="25"/>
+      <c r="BU6" s="21"/>
     </row>
     <row r="7" spans="1:73">
-      <c r="A7" s="79"/>
+      <c r="A7" s="25"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10651,10 +10672,10 @@
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
-      <c r="BU7" s="54"/>
+      <c r="BU7" s="21"/>
     </row>
     <row r="8" spans="1:73">
-      <c r="A8" s="79"/>
+      <c r="A8" s="25"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -10724,10 +10745,10 @@
       <c r="BQ8" s="1"/>
       <c r="BR8" s="1"/>
       <c r="BS8" s="1"/>
-      <c r="BU8" s="54"/>
+      <c r="BU8" s="21"/>
     </row>
     <row r="9" spans="1:73">
-      <c r="A9" s="79"/>
+      <c r="A9" s="25"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
@@ -10805,10 +10826,10 @@
       <c r="BQ9" s="3"/>
       <c r="BR9" s="7"/>
       <c r="BS9" s="1"/>
-      <c r="BU9" s="54"/>
+      <c r="BU9" s="21"/>
     </row>
     <row r="10" spans="1:73">
-      <c r="A10" s="79"/>
+      <c r="A10" s="25"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
@@ -10888,10 +10909,10 @@
       <c r="BQ10" s="1"/>
       <c r="BR10" s="8"/>
       <c r="BS10" s="1"/>
-      <c r="BU10" s="54"/>
+      <c r="BU10" s="21"/>
     </row>
     <row r="11" spans="1:73">
-      <c r="A11" s="79"/>
+      <c r="A11" s="25"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
@@ -10961,10 +10982,10 @@
       <c r="BQ11" s="1"/>
       <c r="BR11" s="8"/>
       <c r="BS11" s="1"/>
-      <c r="BU11" s="54"/>
+      <c r="BU11" s="21"/>
     </row>
     <row r="12" spans="1:73">
-      <c r="A12" s="79"/>
+      <c r="A12" s="25"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
@@ -11044,10 +11065,10 @@
       <c r="BQ12" s="1"/>
       <c r="BR12" s="8"/>
       <c r="BS12" s="1"/>
-      <c r="BU12" s="54"/>
+      <c r="BU12" s="21"/>
     </row>
     <row r="13" spans="1:73">
-      <c r="A13" s="79"/>
+      <c r="A13" s="25"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
@@ -11119,10 +11140,10 @@
       <c r="BQ13" s="1"/>
       <c r="BR13" s="8"/>
       <c r="BS13" s="1"/>
-      <c r="BU13" s="54"/>
+      <c r="BU13" s="21"/>
     </row>
     <row r="14" spans="1:73">
-      <c r="A14" s="79"/>
+      <c r="A14" s="25"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
@@ -11194,10 +11215,10 @@
       <c r="BQ14" s="1"/>
       <c r="BR14" s="8"/>
       <c r="BS14" s="1"/>
-      <c r="BU14" s="54"/>
+      <c r="BU14" s="21"/>
     </row>
     <row r="15" spans="1:73">
-      <c r="A15" s="79"/>
+      <c r="A15" s="25"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
@@ -11267,10 +11288,10 @@
       <c r="BQ15" s="1"/>
       <c r="BR15" s="8"/>
       <c r="BS15" s="1"/>
-      <c r="BU15" s="54"/>
+      <c r="BU15" s="21"/>
     </row>
     <row r="16" spans="1:73">
-      <c r="A16" s="79"/>
+      <c r="A16" s="25"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
@@ -11350,10 +11371,10 @@
       <c r="BQ16" s="1"/>
       <c r="BR16" s="8"/>
       <c r="BS16" s="1"/>
-      <c r="BU16" s="54"/>
+      <c r="BU16" s="21"/>
     </row>
     <row r="17" spans="1:73">
-      <c r="A17" s="79"/>
+      <c r="A17" s="25"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
@@ -11425,10 +11446,10 @@
       <c r="BQ17" s="1"/>
       <c r="BR17" s="8"/>
       <c r="BS17" s="1"/>
-      <c r="BU17" s="54"/>
+      <c r="BU17" s="21"/>
     </row>
     <row r="18" spans="1:73">
-      <c r="A18" s="79"/>
+      <c r="A18" s="25"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
@@ -11502,10 +11523,10 @@
       <c r="BQ18" s="5"/>
       <c r="BR18" s="5"/>
       <c r="BS18" s="1"/>
-      <c r="BU18" s="54"/>
+      <c r="BU18" s="21"/>
     </row>
     <row r="19" spans="1:73">
-      <c r="A19" s="79"/>
+      <c r="A19" s="25"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="5"/>
@@ -11575,10 +11596,10 @@
       <c r="BQ19" s="5"/>
       <c r="BR19" s="5"/>
       <c r="BS19" s="1"/>
-      <c r="BU19" s="54"/>
+      <c r="BU19" s="21"/>
     </row>
     <row r="20" spans="1:73">
-      <c r="A20" s="79"/>
+      <c r="A20" s="25"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -11648,10 +11669,10 @@
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
       <c r="BS20" s="1"/>
-      <c r="BU20" s="54"/>
+      <c r="BU20" s="21"/>
     </row>
     <row r="21" spans="1:73">
-      <c r="A21" s="79"/>
+      <c r="A21" s="25"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -11721,10 +11742,10 @@
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
       <c r="BS21" s="1"/>
-      <c r="BU21" s="54"/>
+      <c r="BU21" s="21"/>
     </row>
     <row r="22" spans="1:73">
-      <c r="A22" s="79"/>
+      <c r="A22" s="25"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -11804,10 +11825,10 @@
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
-      <c r="BU22" s="54"/>
+      <c r="BU22" s="21"/>
     </row>
     <row r="23" spans="1:73">
-      <c r="A23" s="79"/>
+      <c r="A23" s="25"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -11879,10 +11900,10 @@
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
       <c r="BS23" s="1"/>
-      <c r="BU23" s="54"/>
+      <c r="BU23" s="21"/>
     </row>
     <row r="24" spans="1:73">
-      <c r="A24" s="79"/>
+      <c r="A24" s="25"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -11952,10 +11973,10 @@
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
       <c r="BS24" s="1"/>
-      <c r="BU24" s="54"/>
+      <c r="BU24" s="21"/>
     </row>
     <row r="25" spans="1:73">
-      <c r="A25" s="79"/>
+      <c r="A25" s="25"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -12035,10 +12056,10 @@
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
       <c r="BS25" s="1"/>
-      <c r="BU25" s="54"/>
+      <c r="BU25" s="21"/>
     </row>
     <row r="26" spans="1:73">
-      <c r="A26" s="79"/>
+      <c r="A26" s="25"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -12110,10 +12131,10 @@
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
       <c r="BS26" s="1"/>
-      <c r="BU26" s="54"/>
+      <c r="BU26" s="21"/>
     </row>
     <row r="27" spans="1:73">
-      <c r="A27" s="79"/>
+      <c r="A27" s="25"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -12185,10 +12206,10 @@
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1"/>
       <c r="BS27" s="1"/>
-      <c r="BU27" s="54"/>
+      <c r="BU27" s="21"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="79"/>
+      <c r="A28" s="25"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -12268,10 +12289,10 @@
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
       <c r="BS28" s="1"/>
-      <c r="BU28" s="54"/>
+      <c r="BU28" s="21"/>
     </row>
     <row r="29" spans="1:73">
-      <c r="A29" s="79"/>
+      <c r="A29" s="25"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -12345,10 +12366,10 @@
       <c r="BQ29" s="1"/>
       <c r="BR29" s="1"/>
       <c r="BS29" s="1"/>
-      <c r="BU29" s="54"/>
+      <c r="BU29" s="21"/>
     </row>
     <row r="30" spans="1:73">
-      <c r="A30" s="79"/>
+      <c r="A30" s="25"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -12422,10 +12443,10 @@
       <c r="BQ30" s="1"/>
       <c r="BR30" s="1"/>
       <c r="BS30" s="1"/>
-      <c r="BU30" s="54"/>
+      <c r="BU30" s="21"/>
     </row>
     <row r="31" spans="1:73">
-      <c r="A31" s="79"/>
+      <c r="A31" s="25"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -12505,10 +12526,10 @@
       <c r="BQ31" s="1"/>
       <c r="BR31" s="1"/>
       <c r="BS31" s="1"/>
-      <c r="BU31" s="54"/>
+      <c r="BU31" s="21"/>
     </row>
     <row r="32" spans="1:73">
-      <c r="A32" s="79"/>
+      <c r="A32" s="25"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -12580,10 +12601,10 @@
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
       <c r="BS32" s="1"/>
-      <c r="BU32" s="54"/>
+      <c r="BU32" s="21"/>
     </row>
     <row r="33" spans="1:73">
-      <c r="A33" s="79"/>
+      <c r="A33" s="25"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -12655,10 +12676,10 @@
       <c r="BQ33" s="1"/>
       <c r="BR33" s="1"/>
       <c r="BS33" s="1"/>
-      <c r="BU33" s="54"/>
+      <c r="BU33" s="21"/>
     </row>
     <row r="34" spans="1:73">
-      <c r="A34" s="79"/>
+      <c r="A34" s="25"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -12732,10 +12753,10 @@
       <c r="BQ34" s="1"/>
       <c r="BR34" s="1"/>
       <c r="BS34" s="1"/>
-      <c r="BU34" s="54"/>
+      <c r="BU34" s="21"/>
     </row>
     <row r="35" spans="1:73">
-      <c r="A35" s="79"/>
+      <c r="A35" s="25"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -12807,10 +12828,10 @@
       <c r="BQ35" s="1"/>
       <c r="BR35" s="1"/>
       <c r="BS35" s="1"/>
-      <c r="BU35" s="54"/>
+      <c r="BU35" s="21"/>
     </row>
     <row r="36" spans="1:73">
-      <c r="A36" s="79"/>
+      <c r="A36" s="25"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -12882,10 +12903,10 @@
       <c r="BQ36" s="1"/>
       <c r="BR36" s="1"/>
       <c r="BS36" s="1"/>
-      <c r="BU36" s="54"/>
+      <c r="BU36" s="21"/>
     </row>
     <row r="37" spans="1:73">
-      <c r="A37" s="79"/>
+      <c r="A37" s="25"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -12955,10 +12976,10 @@
       <c r="BQ37" s="1"/>
       <c r="BR37" s="1"/>
       <c r="BS37" s="1"/>
-      <c r="BU37" s="54"/>
+      <c r="BU37" s="21"/>
     </row>
     <row r="38" spans="1:73">
-      <c r="A38" s="79"/>
+      <c r="A38" s="25"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -13028,10 +13049,10 @@
       <c r="BQ38" s="1"/>
       <c r="BR38" s="1"/>
       <c r="BS38" s="1"/>
-      <c r="BU38" s="54"/>
+      <c r="BU38" s="21"/>
     </row>
     <row r="39" spans="1:73">
-      <c r="A39" s="79"/>
+      <c r="A39" s="25"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -13111,10 +13132,10 @@
       <c r="BQ39" s="1"/>
       <c r="BR39" s="1"/>
       <c r="BS39" s="1"/>
-      <c r="BU39" s="54"/>
+      <c r="BU39" s="21"/>
     </row>
     <row r="40" spans="1:73">
-      <c r="A40" s="79"/>
+      <c r="A40" s="25"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -13188,10 +13209,10 @@
       <c r="BQ40" s="1"/>
       <c r="BR40" s="1"/>
       <c r="BS40" s="1"/>
-      <c r="BU40" s="54"/>
+      <c r="BU40" s="21"/>
     </row>
     <row r="41" spans="1:73">
-      <c r="A41" s="79"/>
+      <c r="A41" s="25"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -13265,10 +13286,10 @@
       <c r="BQ41" s="1"/>
       <c r="BR41" s="1"/>
       <c r="BS41" s="1"/>
-      <c r="BU41" s="54"/>
+      <c r="BU41" s="21"/>
     </row>
     <row r="42" spans="1:73">
-      <c r="A42" s="79"/>
+      <c r="A42" s="25"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -13338,10 +13359,10 @@
       <c r="BQ42" s="1"/>
       <c r="BR42" s="1"/>
       <c r="BS42" s="1"/>
-      <c r="BU42" s="54"/>
+      <c r="BU42" s="21"/>
     </row>
     <row r="43" spans="1:73">
-      <c r="A43" s="79"/>
+      <c r="A43" s="25"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -13411,10 +13432,10 @@
       <c r="BQ43" s="1"/>
       <c r="BR43" s="1"/>
       <c r="BS43" s="1"/>
-      <c r="BU43" s="54"/>
+      <c r="BU43" s="21"/>
     </row>
     <row r="44" spans="1:73">
-      <c r="A44" s="79"/>
+      <c r="A44" s="25"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -13484,10 +13505,10 @@
       <c r="BQ44" s="1"/>
       <c r="BR44" s="1"/>
       <c r="BS44" s="1"/>
-      <c r="BU44" s="54"/>
+      <c r="BU44" s="21"/>
     </row>
     <row r="45" spans="1:73">
-      <c r="A45" s="79"/>
+      <c r="A45" s="25"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -13557,10 +13578,10 @@
       <c r="BQ45" s="1"/>
       <c r="BR45" s="1"/>
       <c r="BS45" s="1"/>
-      <c r="BU45" s="54"/>
+      <c r="BU45" s="21"/>
     </row>
     <row r="46" spans="1:73">
-      <c r="A46" s="79"/>
+      <c r="A46" s="25"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -13630,10 +13651,10 @@
       <c r="BQ46" s="1"/>
       <c r="BR46" s="1"/>
       <c r="BS46" s="1"/>
-      <c r="BU46" s="54"/>
+      <c r="BU46" s="21"/>
     </row>
     <row r="47" spans="1:73">
-      <c r="A47" s="79"/>
+      <c r="A47" s="25"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -13703,10 +13724,10 @@
       <c r="BQ47" s="1"/>
       <c r="BR47" s="1"/>
       <c r="BS47" s="1"/>
-      <c r="BU47" s="54"/>
+      <c r="BU47" s="21"/>
     </row>
     <row r="48" spans="1:73">
-      <c r="A48" s="79"/>
+      <c r="A48" s="25"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -13776,10 +13797,10 @@
       <c r="BQ48" s="1"/>
       <c r="BR48" s="1"/>
       <c r="BS48" s="1"/>
-      <c r="BU48" s="54"/>
+      <c r="BU48" s="21"/>
     </row>
     <row r="49" spans="1:73">
-      <c r="A49" s="79"/>
+      <c r="A49" s="25"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -13849,349 +13870,360 @@
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
       <c r="BS49" s="1"/>
-      <c r="BU49" s="54"/>
+      <c r="BU49" s="21"/>
     </row>
     <row r="50" spans="1:73">
-      <c r="A50" s="79"/>
-      <c r="BU50" s="54"/>
+      <c r="A50" s="25"/>
+      <c r="BU50" s="21"/>
     </row>
     <row r="51" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A51" s="79"/>
-      <c r="BU51" s="54"/>
+      <c r="A51" s="25"/>
+      <c r="BU51" s="21"/>
     </row>
     <row r="52" spans="1:73">
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="52"/>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="52"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="52"/>
-      <c r="AO52" s="52"/>
-      <c r="AP52" s="52"/>
-      <c r="AQ52" s="52"/>
-      <c r="AR52" s="52"/>
-      <c r="AS52" s="52"/>
-      <c r="AT52" s="52"/>
-      <c r="AU52" s="52"/>
-      <c r="AV52" s="52"/>
-      <c r="AW52" s="52"/>
-      <c r="AX52" s="52"/>
-      <c r="AY52" s="52"/>
-      <c r="AZ52" s="52"/>
-      <c r="BA52" s="52"/>
-      <c r="BB52" s="52"/>
-      <c r="BC52" s="52"/>
-      <c r="BD52" s="52"/>
-      <c r="BE52" s="52"/>
-      <c r="BF52" s="52"/>
-      <c r="BG52" s="52"/>
-      <c r="BH52" s="52"/>
-      <c r="BI52" s="52"/>
-      <c r="BJ52" s="52"/>
-      <c r="BK52" s="52"/>
-      <c r="BL52" s="52"/>
-      <c r="BM52" s="52"/>
-      <c r="BN52" s="52"/>
-      <c r="BO52" s="52"/>
-      <c r="BP52" s="52"/>
-      <c r="BQ52" s="52"/>
-      <c r="BR52" s="52"/>
-      <c r="BS52" s="52"/>
-      <c r="BT52" s="52"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="19"/>
+      <c r="AL52" s="19"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="19"/>
+      <c r="AQ52" s="19"/>
+      <c r="AR52" s="19"/>
+      <c r="AS52" s="19"/>
+      <c r="AT52" s="19"/>
+      <c r="AU52" s="19"/>
+      <c r="AV52" s="19"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="19"/>
+      <c r="AY52" s="19"/>
+      <c r="AZ52" s="19"/>
+      <c r="BA52" s="19"/>
+      <c r="BB52" s="19"/>
+      <c r="BC52" s="19"/>
+      <c r="BD52" s="19"/>
+      <c r="BE52" s="19"/>
+      <c r="BF52" s="19"/>
+      <c r="BG52" s="19"/>
+      <c r="BH52" s="19"/>
+      <c r="BI52" s="19"/>
+      <c r="BJ52" s="19"/>
+      <c r="BK52" s="19"/>
+      <c r="BL52" s="19"/>
+      <c r="BM52" s="19"/>
+      <c r="BN52" s="19"/>
+      <c r="BO52" s="19"/>
+      <c r="BP52" s="19"/>
+      <c r="BQ52" s="19"/>
+      <c r="BR52" s="19"/>
+      <c r="BS52" s="19"/>
+      <c r="BT52" s="19"/>
     </row>
     <row r="53" spans="1:73">
-      <c r="A53" s="79"/>
-      <c r="BU53" s="54"/>
+      <c r="A53" s="25"/>
+      <c r="BU53" s="21"/>
     </row>
     <row r="54" spans="1:73">
-      <c r="A54" s="79"/>
-      <c r="BU54" s="54"/>
+      <c r="A54" s="25"/>
+      <c r="BU54" s="21"/>
     </row>
     <row r="55" spans="1:73">
-      <c r="A55" s="79"/>
-      <c r="BU55" s="54"/>
+      <c r="A55" s="25"/>
+      <c r="BU55" s="21"/>
     </row>
     <row r="56" spans="1:73">
-      <c r="A56" s="79"/>
-      <c r="BU56" s="54"/>
+      <c r="A56" s="25"/>
+      <c r="BU56" s="21"/>
     </row>
     <row r="57" spans="1:73">
-      <c r="A57" s="79"/>
-      <c r="M57" s="97"/>
-      <c r="BU57" s="54"/>
+      <c r="A57" s="25"/>
+      <c r="M57" s="28"/>
+      <c r="BU57" s="21"/>
     </row>
     <row r="58" spans="1:73">
-      <c r="A58" s="79"/>
-      <c r="BU58" s="54"/>
+      <c r="A58" s="25"/>
+      <c r="BU58" s="21"/>
     </row>
     <row r="59" spans="1:73">
-      <c r="A59" s="79"/>
-      <c r="BU59" s="54"/>
+      <c r="A59" s="25"/>
+      <c r="BU59" s="21"/>
     </row>
     <row r="60" spans="1:73">
-      <c r="A60" s="79"/>
-      <c r="BU60" s="54"/>
+      <c r="A60" s="25"/>
+      <c r="BU60" s="21"/>
     </row>
     <row r="61" spans="1:73">
-      <c r="A61" s="79"/>
-      <c r="BU61" s="54"/>
+      <c r="A61" s="25"/>
+      <c r="BU61" s="21"/>
     </row>
     <row r="62" spans="1:73">
-      <c r="A62" s="79"/>
-      <c r="BU62" s="54"/>
+      <c r="A62" s="25"/>
+      <c r="BU62" s="21"/>
     </row>
     <row r="63" spans="1:73">
-      <c r="A63" s="79"/>
-      <c r="BU63" s="54"/>
+      <c r="A63" s="25"/>
+      <c r="BU63" s="21"/>
     </row>
     <row r="64" spans="1:73">
-      <c r="A64" s="79"/>
-      <c r="BU64" s="54"/>
+      <c r="A64" s="25"/>
+      <c r="BU64" s="21"/>
     </row>
     <row r="65" spans="1:73">
-      <c r="A65" s="79"/>
-      <c r="BU65" s="54"/>
+      <c r="A65" s="25"/>
+      <c r="BU65" s="21"/>
     </row>
     <row r="66" spans="1:73">
-      <c r="A66" s="79"/>
-      <c r="BU66" s="54"/>
+      <c r="A66" s="25"/>
+      <c r="BU66" s="21"/>
     </row>
     <row r="67" spans="1:73">
-      <c r="A67" s="79"/>
-      <c r="BU67" s="54"/>
+      <c r="A67" s="25"/>
+      <c r="BU67" s="21"/>
     </row>
     <row r="68" spans="1:73">
-      <c r="A68" s="79"/>
-      <c r="BU68" s="54"/>
+      <c r="A68" s="25"/>
+      <c r="BU68" s="21"/>
     </row>
     <row r="69" spans="1:73">
-      <c r="A69" s="79"/>
-      <c r="BU69" s="54"/>
+      <c r="A69" s="25"/>
+      <c r="BU69" s="21"/>
     </row>
     <row r="70" spans="1:73">
-      <c r="A70" s="79"/>
-      <c r="BU70" s="54"/>
+      <c r="A70" s="25"/>
+      <c r="BU70" s="21"/>
     </row>
     <row r="71" spans="1:73">
-      <c r="A71" s="79"/>
-      <c r="BU71" s="54"/>
+      <c r="A71" s="25"/>
+      <c r="BU71" s="21"/>
     </row>
     <row r="72" spans="1:73">
-      <c r="A72" s="79"/>
-      <c r="BU72" s="54"/>
+      <c r="A72" s="25"/>
+      <c r="BU72" s="21"/>
     </row>
     <row r="73" spans="1:73">
-      <c r="A73" s="79"/>
-      <c r="BU73" s="54"/>
+      <c r="A73" s="25"/>
+      <c r="BU73" s="21"/>
     </row>
     <row r="74" spans="1:73">
-      <c r="A74" s="79"/>
-      <c r="BU74" s="54"/>
+      <c r="A74" s="25"/>
+      <c r="BU74" s="21"/>
     </row>
     <row r="75" spans="1:73">
-      <c r="A75" s="79"/>
-      <c r="BU75" s="54"/>
+      <c r="A75" s="25"/>
+      <c r="BU75" s="21"/>
     </row>
     <row r="76" spans="1:73">
-      <c r="A76" s="79"/>
-      <c r="BU76" s="54"/>
+      <c r="A76" s="25"/>
+      <c r="BU76" s="21"/>
     </row>
     <row r="77" spans="1:73">
-      <c r="A77" s="79"/>
-      <c r="BU77" s="54"/>
+      <c r="A77" s="25"/>
+      <c r="BU77" s="21"/>
     </row>
     <row r="78" spans="1:73">
-      <c r="A78" s="79"/>
-      <c r="BU78" s="54"/>
+      <c r="A78" s="25"/>
+      <c r="BU78" s="21"/>
     </row>
     <row r="79" spans="1:73">
-      <c r="A79" s="79"/>
-      <c r="BU79" s="54"/>
+      <c r="A79" s="25"/>
+      <c r="BU79" s="21"/>
     </row>
     <row r="80" spans="1:73">
-      <c r="A80" s="79"/>
-      <c r="BU80" s="54"/>
+      <c r="A80" s="25"/>
+      <c r="BU80" s="21"/>
     </row>
     <row r="81" spans="1:73">
-      <c r="A81" s="79"/>
-      <c r="BU81" s="54"/>
+      <c r="A81" s="25"/>
+      <c r="BU81" s="21"/>
     </row>
     <row r="82" spans="1:73">
-      <c r="A82" s="79"/>
-      <c r="BU82" s="54"/>
+      <c r="A82" s="25"/>
+      <c r="BU82" s="21"/>
     </row>
     <row r="83" spans="1:73">
-      <c r="A83" s="79"/>
-      <c r="BU83" s="54"/>
+      <c r="A83" s="25"/>
+      <c r="BU83" s="21"/>
     </row>
     <row r="84" spans="1:73">
-      <c r="A84" s="79"/>
-      <c r="BU84" s="54"/>
+      <c r="A84" s="25"/>
+      <c r="BU84" s="21"/>
     </row>
     <row r="85" spans="1:73">
-      <c r="A85" s="79"/>
-      <c r="BU85" s="54"/>
+      <c r="A85" s="25"/>
+      <c r="BU85" s="21"/>
     </row>
     <row r="86" spans="1:73">
-      <c r="A86" s="79"/>
-      <c r="BU86" s="54"/>
+      <c r="A86" s="25"/>
+      <c r="BU86" s="21"/>
     </row>
     <row r="87" spans="1:73">
-      <c r="A87" s="79"/>
-      <c r="BU87" s="54"/>
+      <c r="A87" s="25"/>
+      <c r="BU87" s="21"/>
     </row>
     <row r="88" spans="1:73">
-      <c r="A88" s="79"/>
-      <c r="BU88" s="54"/>
+      <c r="A88" s="25"/>
+      <c r="BU88" s="21"/>
     </row>
     <row r="89" spans="1:73">
-      <c r="A89" s="79"/>
-      <c r="BU89" s="54"/>
+      <c r="A89" s="25"/>
+      <c r="BU89" s="21"/>
     </row>
     <row r="90" spans="1:73">
-      <c r="A90" s="79"/>
-      <c r="BU90" s="54"/>
+      <c r="A90" s="25"/>
+      <c r="BU90" s="21"/>
     </row>
     <row r="91" spans="1:73">
-      <c r="A91" s="79"/>
-      <c r="BU91" s="54"/>
+      <c r="A91" s="25"/>
+      <c r="BU91" s="21"/>
     </row>
     <row r="92" spans="1:73">
-      <c r="A92" s="79"/>
-      <c r="BU92" s="54"/>
+      <c r="A92" s="25"/>
+      <c r="BU92" s="21"/>
     </row>
     <row r="93" spans="1:73">
-      <c r="A93" s="79"/>
-      <c r="BU93" s="54"/>
+      <c r="A93" s="25"/>
+      <c r="BU93" s="21"/>
     </row>
     <row r="94" spans="1:73">
-      <c r="A94" s="79"/>
-      <c r="BU94" s="54"/>
+      <c r="A94" s="25"/>
+      <c r="BU94" s="21"/>
     </row>
     <row r="95" spans="1:73">
-      <c r="A95" s="79"/>
-      <c r="BU95" s="54"/>
+      <c r="A95" s="25"/>
+      <c r="BU95" s="21"/>
     </row>
     <row r="96" spans="1:73">
-      <c r="A96" s="79"/>
-      <c r="BU96" s="54"/>
+      <c r="A96" s="25"/>
+      <c r="BU96" s="21"/>
     </row>
     <row r="97" spans="1:73">
-      <c r="A97" s="79"/>
-      <c r="BU97" s="54"/>
+      <c r="A97" s="25"/>
+      <c r="BU97" s="21"/>
     </row>
     <row r="98" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A98" s="79"/>
-      <c r="BU98" s="54"/>
+      <c r="A98" s="25"/>
+      <c r="BU98" s="21"/>
     </row>
     <row r="99" spans="1:73">
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="52"/>
-      <c r="O99" s="52"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="52"/>
-      <c r="S99" s="52"/>
-      <c r="T99" s="52"/>
-      <c r="U99" s="52"/>
-      <c r="V99" s="52"/>
-      <c r="W99" s="52"/>
-      <c r="X99" s="52"/>
-      <c r="Y99" s="52"/>
-      <c r="Z99" s="52"/>
-      <c r="AA99" s="52"/>
-      <c r="AB99" s="52"/>
-      <c r="AC99" s="52"/>
-      <c r="AD99" s="52"/>
-      <c r="AE99" s="52"/>
-      <c r="AF99" s="52"/>
-      <c r="AG99" s="52"/>
-      <c r="AH99" s="52"/>
-      <c r="AI99" s="52"/>
-      <c r="AJ99" s="52"/>
-      <c r="AK99" s="52"/>
-      <c r="AL99" s="52"/>
-      <c r="AM99" s="52"/>
-      <c r="AN99" s="52"/>
-      <c r="AO99" s="52"/>
-      <c r="AP99" s="52"/>
-      <c r="AQ99" s="52"/>
-      <c r="AR99" s="52"/>
-      <c r="AS99" s="52"/>
-      <c r="AT99" s="52"/>
-      <c r="AU99" s="52"/>
-      <c r="AV99" s="52"/>
-      <c r="AW99" s="52"/>
-      <c r="AX99" s="52"/>
-      <c r="AY99" s="52"/>
-      <c r="AZ99" s="52"/>
-      <c r="BA99" s="52"/>
-      <c r="BB99" s="52"/>
-      <c r="BC99" s="52"/>
-      <c r="BD99" s="52"/>
-      <c r="BE99" s="52"/>
-      <c r="BF99" s="52"/>
-      <c r="BG99" s="52"/>
-      <c r="BH99" s="52"/>
-      <c r="BI99" s="52"/>
-      <c r="BJ99" s="52"/>
-      <c r="BK99" s="52"/>
-      <c r="BL99" s="52"/>
-      <c r="BM99" s="52"/>
-      <c r="BN99" s="52"/>
-      <c r="BO99" s="52"/>
-      <c r="BP99" s="52"/>
-      <c r="BQ99" s="52"/>
-      <c r="BR99" s="52"/>
-      <c r="BS99" s="52"/>
-      <c r="BT99" s="52"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="19"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="19"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19"/>
+      <c r="AE99" s="19"/>
+      <c r="AF99" s="19"/>
+      <c r="AG99" s="19"/>
+      <c r="AH99" s="19"/>
+      <c r="AI99" s="19"/>
+      <c r="AJ99" s="19"/>
+      <c r="AK99" s="19"/>
+      <c r="AL99" s="19"/>
+      <c r="AM99" s="19"/>
+      <c r="AN99" s="19"/>
+      <c r="AO99" s="19"/>
+      <c r="AP99" s="19"/>
+      <c r="AQ99" s="19"/>
+      <c r="AR99" s="19"/>
+      <c r="AS99" s="19"/>
+      <c r="AT99" s="19"/>
+      <c r="AU99" s="19"/>
+      <c r="AV99" s="19"/>
+      <c r="AW99" s="19"/>
+      <c r="AX99" s="19"/>
+      <c r="AY99" s="19"/>
+      <c r="AZ99" s="19"/>
+      <c r="BA99" s="19"/>
+      <c r="BB99" s="19"/>
+      <c r="BC99" s="19"/>
+      <c r="BD99" s="19"/>
+      <c r="BE99" s="19"/>
+      <c r="BF99" s="19"/>
+      <c r="BG99" s="19"/>
+      <c r="BH99" s="19"/>
+      <c r="BI99" s="19"/>
+      <c r="BJ99" s="19"/>
+      <c r="BK99" s="19"/>
+      <c r="BL99" s="19"/>
+      <c r="BM99" s="19"/>
+      <c r="BN99" s="19"/>
+      <c r="BO99" s="19"/>
+      <c r="BP99" s="19"/>
+      <c r="BQ99" s="19"/>
+      <c r="BR99" s="19"/>
+      <c r="BS99" s="19"/>
+      <c r="BT99" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AT2:BF3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:V3"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="AO2:AS3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:V5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="BJ4:BQ4"/>
     <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BQ5"/>
@@ -14199,18 +14231,7 @@
     <mergeCell ref="BJ2:BQ2"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AN5"/>
-    <mergeCell ref="AO4:AS5"/>
-    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AA3"/>
-    <mergeCell ref="AB2:AN3"/>
-    <mergeCell ref="AO2:AS3"/>
-    <mergeCell ref="AT2:BF3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
